--- a/medicine/Pharmacie/Amand_Valeur/Amand_Valeur.xlsx
+++ b/medicine/Pharmacie/Amand_Valeur/Amand_Valeur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amand Valeur est un chimiste et pharmacologue français né en 1870 à Lens et mort en 1927 à Villejuif[1], surtout connu pour ses travaux sur les quinones et les alcaloïdes et comme directeur général des établissements Poulenc frères.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amand Valeur est un chimiste et pharmacologue français né en 1870 à Lens et mort en 1927 à Villejuif, surtout connu pour ses travaux sur les quinones et les alcaloïdes et comme directeur général des établissements Poulenc frères.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>La carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amand Charles Valeur est né le 12 juin 1870 à Lens, dans le Pas-de-Calais, de parents pâtissiers. Il a dix ans lorsque son père et sa mère sont emportés par la variole noire. Recueilli par son oncle paternel, il commence à douze ans de brillantes études secondaires au collège Saint-Joseph d’Arras. En 1888, il est reçu bachelier en lettres. Après son service militaire, il accomplit, à la pharmacie Wagon à Lens puis à la pharmacie Famel à Paris, les trois années de stage exigées pour l’inscription à l’École de pharmacie de Paris.
 En 1892, Valeur obtient son certificat de validation de stage et le baccalauréat en sciences et il s’inscrit à la fois à l’École de pharmacie  et à la faculté des sciences. L’année suivante, il se classe troisième au concours de l’internat des Hôpitaux. Au laboratoire de l’hôpital du Midi, hôpital Ricord à partir de 1893, il se lie d’amitié avec Auguste Béhal qui donne alors, selon la théorie et la notation atomiques, un cours libre de chimie organique à l’École de pharmacie. En 1895, Valeur reçoit la médaille d’or de l’École. À la même époque, Marcellin Berthelot se l’attache comme préparateur au laboratoire de chimie organique de l’École pratique des hautes études.
@@ -547,12 +561,14 @@
           <t>L’œuvre scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Valeur n’a guère poursuivi ses recherches personnelles après la guerre, entièrement occupé qu'il était par la direction des usines Poulenc. Cependant, certains des travaux qu’il a accomplis entre la fin du siècle et 1912, au cours d’à peine plus d’une douzaine d’années donc, ne laissent pas d’être d’une grande importance.
-Valeur a donné, entre autres, des publications sur les halogènes (1899)[2], sur les glycols tertiaires (1902), sur le tétraphénylbutane (1903)[3], et sur l’ozone, obtenant brillamment l’agrégation, en 1909, avec la présentation d’une thèse sur « l’action de l’ozone sur les composés organiques »[4].
-Il a donné d’importantes contributions sur les quinones, séparant, dans sa thèse de doctorat en sciences (1900), les fonctions paraquinone et orthoquinone du point de vue thermochimique[5],[6].
-Mais l’essentiel de ses découvertes concerne certainement la spartéine. En collaboration avec Charles Moureu, Valeur a poursuivi pendant près de dix ans l'étude de cet alcaloïde du genêt à balais. Moureu et lui en ont entièrement élucidé la formule jusqu’alors tout à fait inconnue et ils ont montré que l’un au moins de ses atomes d’azote engage ses trois valences dans un noyau bicyclique[7],[8]. Charles Dufraisse qualifiera de monumental ce travail que les recherches ultérieures confirmeront entièrement[9]. Au cours de cette étude, en 1918, Valeur a également découvert la sarothamnine[10] et la génistéine, autres alcaloïdes du genêt à balais.
+Valeur a donné, entre autres, des publications sur les halogènes (1899), sur les glycols tertiaires (1902), sur le tétraphénylbutane (1903), et sur l’ozone, obtenant brillamment l’agrégation, en 1909, avec la présentation d’une thèse sur « l’action de l’ozone sur les composés organiques ».
+Il a donné d’importantes contributions sur les quinones, séparant, dans sa thèse de doctorat en sciences (1900), les fonctions paraquinone et orthoquinone du point de vue thermochimique,.
+Mais l’essentiel de ses découvertes concerne certainement la spartéine. En collaboration avec Charles Moureu, Valeur a poursuivi pendant près de dix ans l'étude de cet alcaloïde du genêt à balais. Moureu et lui en ont entièrement élucidé la formule jusqu’alors tout à fait inconnue et ils ont montré que l’un au moins de ses atomes d’azote engage ses trois valences dans un noyau bicyclique,. Charles Dufraisse qualifiera de monumental ce travail que les recherches ultérieures confirmeront entièrement. Au cours de cette étude, en 1918, Valeur a également découvert la sarothamnine et la génistéine, autres alcaloïdes du genêt à balais.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Médaille d’or de l’École de pharmacie (1895)
 Médaille d’or des Hôpitaux (1898)
@@ -615,7 +633,9 @@
           <t>Titres et fonctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Interne des Hôpitaux (1893)
 Préparateur à l’École pratique des hautes études (1895)
@@ -656,7 +676,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1900 : Contribution à l'étude thermochimique des quinones : Recherches sur la constitution des quinhydrones, thèse présentée à la faculté des sciences de Paris, pour obtenir le grade de docteur en sciences physiques, Paris, Gauthier-Villars.
 1901 : (en) « Ueber die quantitative Bestimmung der Halogene in den organischen Verbindungen », dans Fresenius' Journal of Analytical Chemistry.
